--- a/epc_data_06_11_24.xlsx
+++ b/epc_data_06_11_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flat 3, Woodville Court, St. Saviours Road, READING, RG1 6DZ</t>
+          <t>Flat 3, Woodville Court, St. Saviours Road, READING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flat 5, Woodville Court, St. Saviours Road, READING, RG1 6DZ</t>
+          <t>Flat 5, Woodville Court, St. Saviours Road, READING</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flat 6 Woodville Court St. Saviours Road READING RG1 6DZ</t>
+          <t>Flat 6, Woodville Court, St. Saviours Road, READING</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -682,6 +682,90 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>19 June 2033</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8 Woodville Court - EPC.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flat 8, Woodville Court, St. Saviours Road, READING, RG1 6DZ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RG1 6DZ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>18 June 2033</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>9 Woodville Court - EPC.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flat 9, Woodville Court, St. Saviours Road, READING</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RG1 6DZ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>16 January 2033</t>
         </is>
       </c>
     </row>
